--- a/serverr/Vaccinate.xlsx
+++ b/serverr/Vaccinate.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,12 +397,6 @@
         <v>VaccineName</v>
       </c>
       <c r="D1" t="str">
-        <v>Dose1</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Dose2</v>
-      </c>
-      <c r="F1" t="str">
         <v>Total</v>
       </c>
     </row>
@@ -414,7 +408,7 @@
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #1 </v>
       </c>
       <c r="C2" t="str">
-        <v>Booked</v>
+        <v>COVISHIELDFree</v>
       </c>
     </row>
     <row r="3">
@@ -425,6 +419,9 @@
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #2 </v>
       </c>
       <c r="C3" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D3" t="str">
         <v>N/A</v>
       </c>
     </row>
@@ -435,17 +432,20 @@
       <c r="B4" t="str">
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: Precaution </v>
       </c>
+      <c r="C4" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -461,12 +461,6 @@
         <v>VaccineName</v>
       </c>
       <c r="D1" t="str">
-        <v>Dose1</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Dose2</v>
-      </c>
-      <c r="F1" t="str">
         <v>Total</v>
       </c>
     </row>
@@ -478,6 +472,9 @@
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #1 </v>
       </c>
       <c r="C2" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D2" t="str">
         <v>N/A</v>
       </c>
     </row>
@@ -489,6 +486,9 @@
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #2 </v>
       </c>
       <c r="C3" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D3" t="str">
         <v>59</v>
       </c>
     </row>
@@ -499,17 +499,20 @@
       <c r="B4" t="str">
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: Precaution </v>
       </c>
+      <c r="C4" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,12 +528,6 @@
         <v>VaccineName</v>
       </c>
       <c r="D1" t="str">
-        <v>Dose1</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Dose2</v>
-      </c>
-      <c r="F1" t="str">
         <v>Total</v>
       </c>
     </row>
@@ -542,6 +539,9 @@
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #1 </v>
       </c>
       <c r="C2" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D2" t="str">
         <v>N/A</v>
       </c>
     </row>
@@ -553,6 +553,9 @@
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #2 </v>
       </c>
       <c r="C3" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D3" t="str">
         <v>N/A</v>
       </c>
     </row>
@@ -563,17 +566,20 @@
       <c r="B4" t="str">
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: Precaution </v>
       </c>
+      <c r="C4" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -589,12 +595,6 @@
         <v>VaccineName</v>
       </c>
       <c r="D1" t="str">
-        <v>Dose1</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Dose2</v>
-      </c>
-      <c r="F1" t="str">
         <v>Total</v>
       </c>
     </row>
@@ -606,6 +606,9 @@
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #1 </v>
       </c>
       <c r="C2" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D2" t="str">
         <v>N/A</v>
       </c>
     </row>
@@ -617,6 +620,9 @@
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #2 </v>
       </c>
       <c r="C3" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D3" t="str">
         <v>N/A</v>
       </c>
     </row>
@@ -627,17 +633,20 @@
       <c r="B4" t="str">
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: Precaution </v>
       </c>
+      <c r="C4" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -653,12 +662,6 @@
         <v>VaccineName</v>
       </c>
       <c r="D1" t="str">
-        <v>Dose1</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Dose2</v>
-      </c>
-      <c r="F1" t="str">
         <v>Total</v>
       </c>
     </row>
@@ -670,6 +673,9 @@
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #1 </v>
       </c>
       <c r="C2" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D2" t="str">
         <v>73</v>
       </c>
     </row>
@@ -681,6 +687,9 @@
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #2 </v>
       </c>
       <c r="C3" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D3" t="str">
         <v>N/A</v>
       </c>
     </row>
@@ -691,17 +700,20 @@
       <c r="B4" t="str">
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: Precaution </v>
       </c>
+      <c r="C4" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -717,12 +729,6 @@
         <v>VaccineName</v>
       </c>
       <c r="D1" t="str">
-        <v>Dose1</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Dose2</v>
-      </c>
-      <c r="F1" t="str">
         <v>Total</v>
       </c>
     </row>
@@ -734,6 +740,9 @@
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #1 </v>
       </c>
       <c r="C2" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D2" t="str">
         <v>N/A</v>
       </c>
     </row>
@@ -744,6 +753,9 @@
       <c r="B3" t="str">
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #2 </v>
       </c>
+      <c r="C3" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -752,17 +764,20 @@
       <c r="B4" t="str">
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: Precaution </v>
       </c>
+      <c r="C4" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -778,12 +793,6 @@
         <v>VaccineName</v>
       </c>
       <c r="D1" t="str">
-        <v>Dose1</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Dose2</v>
-      </c>
-      <c r="F1" t="str">
         <v>Total</v>
       </c>
     </row>
@@ -795,6 +804,9 @@
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #1 </v>
       </c>
       <c r="C2" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
+      <c r="D2" t="str">
         <v>N/A</v>
       </c>
     </row>
@@ -805,6 +817,9 @@
       <c r="B3" t="str">
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: #2 </v>
       </c>
+      <c r="C3" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -813,10 +828,13 @@
       <c r="B4" t="str">
         <v xml:space="preserve"> RAJENDRA NAGAR PHC  RAJENDRA NAGAR INDORE, Indore, Madhya Pradesh, 452012 COVISHIELDFreeAge: 18 &amp; Above Dose: Precaution </v>
       </c>
+      <c r="C4" t="str">
+        <v>COVISHIELDFree</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>